--- a/UseCaseScenarij/Ocjenjivanje usluge.xlsx
+++ b/UseCaseScenarij/Ocjenjivanje usluge.xlsx
@@ -25,15 +25,9 @@
     <t>Opis</t>
   </si>
   <si>
-    <t xml:space="preserve">Korisnik će putem aplikacije imati mogućnost komentarisanja i ocjenjivanja vozače i vozila </t>
-  </si>
-  <si>
     <t>Preduvjeti</t>
   </si>
   <si>
-    <t>Korisnik mora imati pristup Internetu, te svoju odgovarajuću šifru.</t>
-  </si>
-  <si>
     <t>Posljedice – uspješan završetak</t>
   </si>
   <si>
@@ -41,9 +35,6 @@
   </si>
   <si>
     <t>Posljedice – neuspješan završetak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korisnik dobiva obavijest  da ne nije unio ispravnu šifru. </t>
   </si>
   <si>
     <t>Primarni akteri</t>
@@ -285,18 +276,35 @@
   </si>
   <si>
     <t>9.       Postupanje u skladu s rang listom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korisnik će putem aplikacije imati mogućnost komentarisanja i ocjenjivanja vozača i vozila </t>
+  </si>
+  <si>
+    <t>Korisnik mora imati svoju odgovarajuću šifru.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korisnik dobiva obavijest  da nije unio ispravnu šifru. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,61 +432,61 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,14 +796,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -812,55 +820,55 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -877,81 +885,81 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
